--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H2">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>119.3248999825247</v>
+        <v>141.666807369748</v>
       </c>
       <c r="R2">
-        <v>119.3248999825247</v>
+        <v>1275.001266327732</v>
       </c>
       <c r="S2">
-        <v>0.003634291997932445</v>
+        <v>0.003944538889367402</v>
       </c>
       <c r="T2">
-        <v>0.003634291997932445</v>
+        <v>0.003944538889367401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H3">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>46.44746164446247</v>
+        <v>50.769830065544</v>
       </c>
       <c r="R3">
-        <v>46.44746164446247</v>
+        <v>456.9284705898961</v>
       </c>
       <c r="S3">
-        <v>0.00141465560166793</v>
+        <v>0.001413623789639221</v>
       </c>
       <c r="T3">
-        <v>0.00141465560166793</v>
+        <v>0.00141362378963922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H4">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>63.5869697765085</v>
+        <v>73.33061893428399</v>
       </c>
       <c r="R4">
-        <v>63.5869697765085</v>
+        <v>659.975570408556</v>
       </c>
       <c r="S4">
-        <v>0.00193667554270216</v>
+        <v>0.002041801347387697</v>
       </c>
       <c r="T4">
-        <v>0.00193667554270216</v>
+        <v>0.002041801347387697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H5">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>85.28179471910096</v>
+        <v>92.899365096444</v>
       </c>
       <c r="R5">
-        <v>85.28179471910096</v>
+        <v>836.0942858679959</v>
       </c>
       <c r="S5">
-        <v>0.00259743728393937</v>
+        <v>0.002586669137422207</v>
       </c>
       <c r="T5">
-        <v>0.00259743728393937</v>
+        <v>0.002586669137422206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H6">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>25.05004833359368</v>
+        <v>28.515669824296</v>
       </c>
       <c r="R6">
-        <v>25.05004833359368</v>
+        <v>256.641028418664</v>
       </c>
       <c r="S6">
-        <v>0.0007629521601940021</v>
+        <v>0.0007939839307927799</v>
       </c>
       <c r="T6">
-        <v>0.0007629521601940021</v>
+        <v>0.0007939839307927798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H7">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>21.04607211966043</v>
+        <v>23.29330068849867</v>
       </c>
       <c r="R7">
-        <v>21.04607211966043</v>
+        <v>209.639706196488</v>
       </c>
       <c r="S7">
-        <v>0.0006410026030073583</v>
+        <v>0.0006485734529733752</v>
       </c>
       <c r="T7">
-        <v>0.0006410026030073583</v>
+        <v>0.0006485734529733752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H8">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>1991.223467005902</v>
+        <v>2220.96360607735</v>
       </c>
       <c r="R8">
-        <v>1991.223467005902</v>
+        <v>19988.67245469615</v>
       </c>
       <c r="S8">
-        <v>0.06064691873443574</v>
+        <v>0.06184001375266788</v>
       </c>
       <c r="T8">
-        <v>0.06064691873443574</v>
+        <v>0.06184001375266787</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H9">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>775.0878117044731</v>
+        <v>795.9376437982999</v>
       </c>
       <c r="R9">
-        <v>775.0878117044731</v>
+        <v>7163.4387941847</v>
       </c>
       <c r="S9">
-        <v>0.02360693729628161</v>
+        <v>0.02216190967923439</v>
       </c>
       <c r="T9">
-        <v>0.02360693729628161</v>
+        <v>0.02216190967923439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H10">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>1061.101802166369</v>
+        <v>1149.63158193505</v>
       </c>
       <c r="R10">
-        <v>1061.101802166369</v>
+        <v>10346.68423741545</v>
       </c>
       <c r="S10">
-        <v>0.03231809780833421</v>
+        <v>0.03201008456096639</v>
       </c>
       <c r="T10">
-        <v>0.03231809780833421</v>
+        <v>0.03201008456096639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H11">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>1423.132229550777</v>
+        <v>1456.41814577205</v>
       </c>
       <c r="R11">
-        <v>1423.132229550777</v>
+        <v>13107.76331194845</v>
       </c>
       <c r="S11">
-        <v>0.04334449955217731</v>
+        <v>0.04055218100725687</v>
       </c>
       <c r="T11">
-        <v>0.04334449955217731</v>
+        <v>0.04055218100725686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H12">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>418.0204140023486</v>
+        <v>447.0508375147</v>
       </c>
       <c r="R12">
-        <v>418.0204140023486</v>
+        <v>4023.4575376323</v>
       </c>
       <c r="S12">
-        <v>0.01273169510976865</v>
+        <v>0.01244758350132457</v>
       </c>
       <c r="T12">
-        <v>0.01273169510976865</v>
+        <v>0.01244758350132457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H13">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>351.2044233777183</v>
+        <v>365.1778003265666</v>
       </c>
       <c r="R13">
-        <v>351.2044233777183</v>
+        <v>3286.6002029391</v>
       </c>
       <c r="S13">
-        <v>0.01069667291325655</v>
+        <v>0.01016792897126717</v>
       </c>
       <c r="T13">
-        <v>0.01069667291325655</v>
+        <v>0.01016792897126717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H14">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>848.4928556865326</v>
+        <v>1148.955897639285</v>
       </c>
       <c r="R14">
-        <v>848.4928556865326</v>
+        <v>10340.60307875357</v>
       </c>
       <c r="S14">
-        <v>0.02584264303742154</v>
+        <v>0.0319912709586056</v>
       </c>
       <c r="T14">
-        <v>0.02584264303742154</v>
+        <v>0.0319912709586056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H15">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>330.277581425774</v>
+        <v>411.7569722857153</v>
       </c>
       <c r="R15">
-        <v>330.277581425774</v>
+        <v>3705.812750571438</v>
       </c>
       <c r="S15">
-        <v>0.01005930171697576</v>
+        <v>0.01146486901416552</v>
       </c>
       <c r="T15">
-        <v>0.01005930171697576</v>
+        <v>0.01146486901416552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H16">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>452.1528162020201</v>
+        <v>594.7310359171436</v>
       </c>
       <c r="R16">
-        <v>452.1528162020201</v>
+        <v>5352.579323254292</v>
       </c>
       <c r="S16">
-        <v>0.0137712695506661</v>
+        <v>0.01655955790523372</v>
       </c>
       <c r="T16">
-        <v>0.0137712695506661</v>
+        <v>0.01655955790523372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H17">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>606.41989685204</v>
+        <v>753.438828729457</v>
       </c>
       <c r="R17">
-        <v>606.41989685204</v>
+        <v>6780.949458565113</v>
       </c>
       <c r="S17">
-        <v>0.01846979950403606</v>
+        <v>0.02097858218069374</v>
       </c>
       <c r="T17">
-        <v>0.01846979950403606</v>
+        <v>0.02097858218069374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H18">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>178.125328818791</v>
+        <v>231.2697492663047</v>
       </c>
       <c r="R18">
-        <v>178.125328818791</v>
+        <v>2081.427743396742</v>
       </c>
       <c r="S18">
-        <v>0.005425183320916458</v>
+        <v>0.006439423156718871</v>
       </c>
       <c r="T18">
-        <v>0.005425183320916458</v>
+        <v>0.006439423156718869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H19">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>149.6539434469305</v>
+        <v>188.9149314396904</v>
       </c>
       <c r="R19">
-        <v>149.6539434469305</v>
+        <v>1700.234382957214</v>
       </c>
       <c r="S19">
-        <v>0.004558027110920412</v>
+        <v>0.005260105085174411</v>
       </c>
       <c r="T19">
-        <v>0.004558027110920412</v>
+        <v>0.005260105085174411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H20">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>989.7047052144364</v>
+        <v>1155.327709248621</v>
       </c>
       <c r="R20">
-        <v>989.7047052144364</v>
+        <v>10397.94938323759</v>
       </c>
       <c r="S20">
-        <v>0.03014354833738543</v>
+        <v>0.03216868625549409</v>
       </c>
       <c r="T20">
-        <v>0.03014354833738543</v>
+        <v>0.03216868625549409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H21">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>385.2445829958695</v>
+        <v>414.0404697303307</v>
       </c>
       <c r="R21">
-        <v>385.2445829958695</v>
+        <v>3726.364227572976</v>
       </c>
       <c r="S21">
-        <v>0.01173343791139783</v>
+        <v>0.01152845020612778</v>
       </c>
       <c r="T21">
-        <v>0.01173343791139783</v>
+        <v>0.01152845020612778</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H22">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>527.403108549474</v>
+        <v>598.0292600934373</v>
       </c>
       <c r="R22">
-        <v>527.403108549474</v>
+        <v>5382.263340840936</v>
       </c>
       <c r="S22">
-        <v>0.01606317623033213</v>
+        <v>0.01665139292128859</v>
       </c>
       <c r="T22">
-        <v>0.01606317623033213</v>
+        <v>0.01665139292128859</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H23">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>707.3443473657798</v>
+        <v>757.6172051890641</v>
       </c>
       <c r="R23">
-        <v>707.3443473657798</v>
+        <v>6818.554846701576</v>
       </c>
       <c r="S23">
-        <v>0.02154366692778022</v>
+        <v>0.02109492396000921</v>
       </c>
       <c r="T23">
-        <v>0.02154366692778022</v>
+        <v>0.0210949239600092</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H24">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>207.7701360339506</v>
+        <v>232.5523113527094</v>
       </c>
       <c r="R24">
-        <v>207.7701360339506</v>
+        <v>2092.970802174385</v>
       </c>
       <c r="S24">
-        <v>0.006328078572939154</v>
+        <v>0.006475134528505823</v>
       </c>
       <c r="T24">
-        <v>0.006328078572939154</v>
+        <v>0.006475134528505822</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H25">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N25">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q25">
-        <v>174.5603525011191</v>
+        <v>189.9626046844142</v>
       </c>
       <c r="R25">
-        <v>174.5603525011191</v>
+        <v>1709.663442159728</v>
       </c>
       <c r="S25">
-        <v>0.00531660443330766</v>
+        <v>0.00528927626460515</v>
       </c>
       <c r="T25">
-        <v>0.00531660443330766</v>
+        <v>0.00528927626460515</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H26">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N26">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q26">
-        <v>6248.001732449193</v>
+        <v>6946.96134934908</v>
       </c>
       <c r="R26">
-        <v>6248.001732449193</v>
+        <v>62522.65214414172</v>
       </c>
       <c r="S26">
-        <v>0.1902960966456593</v>
+        <v>0.1934296375714846</v>
       </c>
       <c r="T26">
-        <v>0.1902960966456593</v>
+        <v>0.1934296375714846</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H27">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N27">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q27">
-        <v>2432.047467586142</v>
+        <v>2489.616683870232</v>
       </c>
       <c r="R27">
-        <v>2432.047467586142</v>
+        <v>22406.5501548321</v>
       </c>
       <c r="S27">
-        <v>0.07407314526418736</v>
+        <v>0.06932032994512953</v>
       </c>
       <c r="T27">
-        <v>0.07407314526418736</v>
+        <v>0.06932032994512954</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H28">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N28">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q28">
-        <v>3329.493654576735</v>
+        <v>3595.937431770634</v>
       </c>
       <c r="R28">
-        <v>3329.493654576735</v>
+        <v>32363.43688593571</v>
       </c>
       <c r="S28">
-        <v>0.1014067654594069</v>
+        <v>0.1001244773331439</v>
       </c>
       <c r="T28">
-        <v>0.1014067654594069</v>
+        <v>0.1001244773331439</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H29">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N29">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q29">
-        <v>4465.461954959564</v>
+        <v>4555.536407478041</v>
       </c>
       <c r="R29">
-        <v>4465.461954959564</v>
+        <v>40999.82766730237</v>
       </c>
       <c r="S29">
-        <v>0.1360050806860767</v>
+        <v>0.1268433365221969</v>
       </c>
       <c r="T29">
-        <v>0.1360050806860767</v>
+        <v>0.1268433365221969</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H30">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N30">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q30">
-        <v>1311.652014031864</v>
+        <v>1398.332183792027</v>
       </c>
       <c r="R30">
-        <v>1311.652014031864</v>
+        <v>12584.98965412825</v>
       </c>
       <c r="S30">
-        <v>0.03994913399773309</v>
+        <v>0.03893484847742502</v>
       </c>
       <c r="T30">
-        <v>0.03994913399773309</v>
+        <v>0.03893484847742502</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H31">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N31">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q31">
-        <v>1101.998787211611</v>
+        <v>1142.24116845822</v>
       </c>
       <c r="R31">
-        <v>1101.998787211611</v>
+        <v>10280.17051612398</v>
       </c>
       <c r="S31">
-        <v>0.0335637019153668</v>
+        <v>0.03180430754157063</v>
       </c>
       <c r="T31">
-        <v>0.0335637019153668</v>
+        <v>0.03180430754157064</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H32">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N32">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q32">
-        <v>663.7907047286179</v>
+        <v>781.2987924713519</v>
       </c>
       <c r="R32">
-        <v>663.7907047286179</v>
+        <v>7031.689132242168</v>
       </c>
       <c r="S32">
-        <v>0.02021714869947894</v>
+        <v>0.0217543087780289</v>
       </c>
       <c r="T32">
-        <v>0.02021714869947894</v>
+        <v>0.0217543087780289</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H33">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N33">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q33">
-        <v>258.381890974545</v>
+        <v>279.997888430256</v>
       </c>
       <c r="R33">
-        <v>258.381890974545</v>
+        <v>2519.980995872304</v>
       </c>
       <c r="S33">
-        <v>0.007869566527329713</v>
+        <v>0.007796198561680513</v>
       </c>
       <c r="T33">
-        <v>0.007869566527329713</v>
+        <v>0.007796198561680512</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H34">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N34">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q34">
-        <v>353.7270048890666</v>
+        <v>404.4216502670159</v>
       </c>
       <c r="R34">
-        <v>353.7270048890666</v>
+        <v>3639.794852403144</v>
       </c>
       <c r="S34">
-        <v>0.01077350346414885</v>
+        <v>0.01126062594900436</v>
       </c>
       <c r="T34">
-        <v>0.01077350346414885</v>
+        <v>0.01126062594900436</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H35">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N35">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q35">
-        <v>474.4128226833112</v>
+        <v>512.344162466856</v>
       </c>
       <c r="R35">
-        <v>474.4128226833112</v>
+        <v>4611.097462201704</v>
       </c>
       <c r="S35">
-        <v>0.01444924509006089</v>
+        <v>0.0142655962332532</v>
       </c>
       <c r="T35">
-        <v>0.01444924509006089</v>
+        <v>0.0142655962332532</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H36">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N36">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q36">
-        <v>139.3505399064007</v>
+        <v>157.265197217904</v>
       </c>
       <c r="R36">
-        <v>139.3505399064007</v>
+        <v>1415.386774961136</v>
       </c>
       <c r="S36">
-        <v>0.004244215181940792</v>
+        <v>0.00437885696648039</v>
       </c>
       <c r="T36">
-        <v>0.004244215181940792</v>
+        <v>0.004378856966480389</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H37">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N37">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q37">
-        <v>117.0768804006931</v>
+        <v>128.463597355568</v>
       </c>
       <c r="R37">
-        <v>117.0768804006931</v>
+        <v>1156.172376200112</v>
       </c>
       <c r="S37">
-        <v>0.003565823810834509</v>
+        <v>0.003576911663679392</v>
       </c>
       <c r="T37">
-        <v>0.003565823810834509</v>
+        <v>0.003576911663679392</v>
       </c>
     </row>
   </sheetData>
